--- a/Results/Single_subject_results.xlsx
+++ b/Results/Single_subject_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\algonauts_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893E59BE-E5D8-49E5-BCB2-CEA90F63408F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5389F7-0E3C-44A1-B631-E617A08BBAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22620" yWindow="2970" windowWidth="21600" windowHeight="11235" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="48">
   <si>
     <t>ROI</t>
   </si>
@@ -196,13 +196,7 @@
     <t>Avg. % of voxels improved vs reg</t>
   </si>
   <si>
-    <t>CL vs. Ctrl p-value</t>
-  </si>
-  <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -571,7 +565,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -583,9 +577,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -625,7 +619,7 @@
         <v>71.933085501858741</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -645,7 +639,7 @@
         <v>72.1575649059982</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -665,7 +659,7 @@
         <v>94.726930320150657</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -685,7 +679,7 @@
         <v>93.061840120663646</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -705,7 +699,7 @@
         <v>93.435448577680518</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -725,7 +719,7 @@
         <v>97.655172413793096</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -745,7 +739,7 @@
         <v>81.506849315068493</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -765,7 +759,7 @@
         <v>93.449419568822549</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -785,7 +779,7 @@
         <v>79.296875</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -805,7 +799,7 @@
         <v>57.317073170731703</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -825,7 +819,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -845,7 +839,7 @@
         <v>95.758354755784055</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -865,7 +859,7 @@
         <v>43.726937269372698</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -885,7 +879,7 @@
         <v>22.985074626865671</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -905,7 +899,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -925,7 +919,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -945,7 +939,7 @@
         <v>98.592827961870171</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -965,7 +959,7 @@
         <v>95.268138801261827</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -985,7 +979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1005,7 +999,7 @@
         <v>80.656303972366146</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1025,7 +1019,7 @@
         <v>97.400611620795104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1045,7 +1039,7 @@
         <v>95.440729483282666</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1065,7 +1059,7 @@
         <v>67.704280155642024</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1085,7 +1079,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1105,7 +1099,7 @@
         <v>95.608434900367584</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1125,7 +1119,7 @@
         <v>79.026651216685977</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1145,7 +1139,7 @@
         <v>68.30601092896174</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1165,7 +1159,7 @@
         <v>91.920374707259953</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1185,7 +1179,7 @@
         <v>95.474658085277554</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1205,7 +1199,7 @@
         <v>90.497448979591837</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1225,7 +1219,7 @@
         <v>96.147260273972606</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1245,7 +1239,7 @@
         <v>83.298309504967605</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1265,7 +1259,7 @@
         <v>86.353841593601913</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -1285,7 +1279,7 @@
         <v>79.045894337445731</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -1316,9 +1310,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1358,7 +1352,7 @@
         <v>98.811544991511042</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1378,7 +1372,7 @@
         <v>90.368271954674213</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1398,7 +1392,7 @@
         <v>94.4356120826709</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1418,7 +1412,7 @@
         <v>86.180904522613062</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1438,7 +1432,7 @@
         <v>88.706365503080093</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1458,7 +1452,7 @@
         <v>93.837535014005596</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1478,7 +1472,7 @@
         <v>78.571428571428569</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1498,7 +1492,7 @@
         <v>97.770423271207108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1518,7 +1512,7 @@
         <v>65.647482014388487</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1538,7 +1532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1558,7 +1552,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +1572,7 @@
         <v>96.942242355605885</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1598,7 +1592,7 @@
         <v>80.243161094224931</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1618,7 +1612,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1638,7 +1632,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1658,7 +1652,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1678,7 +1672,7 @@
         <v>99.555555555555557</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1698,7 +1692,7 @@
         <v>98.171500630517031</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1718,7 +1712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1738,7 +1732,7 @@
         <v>30.097087378640779</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1758,7 +1752,7 @@
         <v>86.581469648562305</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1778,7 +1772,7 @@
         <v>96.449704142011839</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1798,7 +1792,7 @@
         <v>52.941176470588239</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1818,7 +1812,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1838,7 +1832,7 @@
         <v>94.228592983779706</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1858,7 +1852,7 @@
         <v>66.095238095238102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1878,7 +1872,7 @@
         <v>75.420875420875419</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1898,7 +1892,7 @@
         <v>97.451669595782079</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1918,7 +1912,7 @@
         <v>91.776586974443532</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1938,7 +1932,7 @@
         <v>97.062115277000558</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1958,7 +1952,7 @@
         <v>98.490077653149271</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1978,7 +1972,7 @@
         <v>82.253208192650163</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1998,7 +1992,7 @@
         <v>90.13023751999765</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -2018,7 +2012,7 @@
         <v>74.569215581638645</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -2049,9 +2043,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +2065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2085,7 @@
         <v>72.575250836120404</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2111,7 +2105,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2131,7 +2125,7 @@
         <v>92.946058091286304</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2151,7 +2145,7 @@
         <v>92.100538599640942</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2171,7 +2165,7 @@
         <v>89.810426540284354</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2191,7 +2185,7 @@
         <v>96.141479099678463</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2211,7 +2205,7 @@
         <v>90.888382687927106</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2231,7 +2225,7 @@
         <v>86.796116504854368</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2251,7 +2245,7 @@
         <v>85.853658536585371</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2271,7 +2265,7 @@
         <v>95.607235142118867</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2291,7 +2285,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2311,7 +2305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2331,7 +2325,7 @@
         <v>76.321839080459768</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2351,7 +2345,7 @@
         <v>86.5625</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2371,7 +2365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2391,7 +2385,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2411,7 +2405,7 @@
         <v>96.541617819460726</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2431,7 +2425,7 @@
         <v>98.646496815286625</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2451,7 +2445,7 @@
         <v>99.380804953560371</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2471,7 +2465,7 @@
         <v>99.229287090558771</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2491,7 +2485,7 @@
         <v>98.639455782312922</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2511,7 +2505,7 @@
         <v>98.967551622418881</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2531,7 +2525,7 @@
         <v>94.907407407407405</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2551,7 +2545,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2571,7 +2565,7 @@
         <v>90.0797510212021</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2591,7 +2585,7 @@
         <v>58.525345622119808</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2611,7 +2605,7 @@
         <v>93.52780309936189</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -2631,7 +2625,7 @@
         <v>96.600234466588503</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -2651,7 +2645,7 @@
         <v>90.388095716871106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2671,7 +2665,7 @@
         <v>96.259590792838878</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2691,7 +2685,7 @@
         <v>99.359795134443019</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -2711,7 +2705,7 @@
         <v>91.033582313458794</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -2731,7 +2725,7 @@
         <v>87.958876550705355</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -2751,7 +2745,7 @@
         <v>93.650305442694147</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -2782,9 +2776,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2804,7 +2798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2824,7 +2818,7 @@
         <v>88.111888111888121</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2844,7 +2838,7 @@
         <v>86.376404494382015</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2864,7 +2858,7 @@
         <v>94.426229508196727</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2884,7 +2878,7 @@
         <v>97.13774597495528</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2904,7 +2898,7 @@
         <v>80.451127819548873</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2924,7 +2918,7 @@
         <v>86.717267552182165</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2944,7 +2938,7 @@
         <v>74.7340425531915</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2964,7 +2958,7 @@
         <v>99.261083743842363</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2984,7 +2978,7 @@
         <v>92.112676056338032</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3004,7 +2998,7 @@
         <v>87.671232876712324</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3024,7 +3018,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3044,7 +3038,7 @@
         <v>99.578947368421055</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3064,7 +3058,7 @@
         <v>86.227544910179645</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3084,7 +3078,7 @@
         <v>95.984703632887189</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3104,7 +3098,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3124,7 +3118,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3144,7 +3138,7 @@
         <v>94.244186046511629</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3164,7 +3158,7 @@
         <v>93.783068783068785</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3184,7 +3178,7 @@
         <v>98.544395924308589</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3204,7 +3198,7 @@
         <v>64.453961456102775</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3224,7 +3218,7 @@
         <v>99.780701754385973</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3244,7 +3238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3264,7 +3258,7 @@
         <v>73.08584686774941</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -3284,7 +3278,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3304,7 +3298,7 @@
         <v>87.284049819204498</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3324,7 +3318,7 @@
         <v>65.014299332697817</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3344,7 +3338,7 @@
         <v>95.294117647058812</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -3364,7 +3358,7 @@
         <v>93.474426807760139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -3384,7 +3378,7 @@
         <v>93.219291014014843</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3404,7 +3398,7 @@
         <v>98.546267822197379</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -3424,7 +3418,7 @@
         <v>92.2279792746114</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -3444,7 +3438,7 @@
         <v>89.696195969728478</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -3464,7 +3458,7 @@
         <v>86.850672287763544</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -3484,7 +3478,7 @@
         <v>91.319882101464827</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -3515,9 +3509,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3537,7 +3531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3557,7 +3551,7 @@
         <v>75.967413441955188</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3577,7 +3571,7 @@
         <v>76.335877862595424</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3597,7 +3591,7 @@
         <v>96.058394160583944</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3617,7 +3611,7 @@
         <v>96.915584415584405</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3637,7 +3631,7 @@
         <v>89.97955010224949</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3657,7 +3651,7 @@
         <v>98.003072196620593</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3677,7 +3671,7 @@
         <v>85.925925925925924</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3697,7 +3691,7 @@
         <v>97.340562871159307</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3717,7 +3711,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3737,7 +3731,7 @@
         <v>95.73459715639811</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3757,7 +3751,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3777,7 +3771,7 @@
         <v>99.769585253456214</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3797,7 +3791,7 @@
         <v>89.876033057851231</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3817,7 +3811,7 @@
         <v>74.358974358974365</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3837,7 +3831,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3857,7 +3851,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3877,7 +3871,7 @@
         <v>88.702669149596531</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3897,7 +3891,7 @@
         <v>96.825396825396822</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3917,7 +3911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3937,7 +3931,7 @@
         <v>90.733590733590731</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3957,7 +3951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3977,7 +3971,7 @@
         <v>99.20886075949366</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3997,7 +3991,7 @@
         <v>97.802197802197796</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4017,7 +4011,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -4037,7 +4031,7 @@
         <v>87.28961114335462</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4057,7 +4051,7 @@
         <v>89.965397923875429</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4077,7 +4071,7 @@
         <v>93.624772313296901</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -4097,7 +4091,7 @@
         <v>73.278879813302225</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -4117,7 +4111,7 @@
         <v>96.500402252614634</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -4137,7 +4131,7 @@
         <v>98.463508322663245</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -4157,7 +4151,7 @@
         <v>99.145299145299148</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -4177,7 +4171,7 @@
         <v>91.8386983456937</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -4197,7 +4191,7 @@
         <v>88.455116872216422</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -4217,7 +4211,7 @@
         <v>94.196038997342896</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -4248,9 +4242,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4270,7 +4264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4290,7 +4284,7 @@
         <v>81.531531531531527</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4310,7 +4304,7 @@
         <v>88.011283497884335</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4330,7 +4324,7 @@
         <v>96.521739130434781</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4350,7 +4344,7 @@
         <v>86.806883365200761</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4370,7 +4364,7 @@
         <v>97.719298245614041</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4390,7 +4384,7 @@
         <v>93.818181818181827</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4410,7 +4404,7 @@
         <v>90.28871391076116</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -4430,7 +4424,7 @@
         <v>98.816918071576453</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -4450,7 +4444,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4470,7 +4464,7 @@
         <v>89.080459770114942</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -4490,7 +4484,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4510,7 +4504,7 @@
         <v>85.099337748344368</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -4530,7 +4524,7 @@
         <v>97.171381031613976</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4550,7 +4544,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -4570,7 +4564,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -4590,7 +4584,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -4610,7 +4604,7 @@
         <v>93.962008141112619</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -4630,7 +4624,7 @@
         <v>95.702592087312411</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4650,7 +4644,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -4670,7 +4664,7 @@
         <v>96.010638297872347</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -4690,7 +4684,7 @@
         <v>99.519230769230774</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -4710,7 +4704,7 @@
         <v>94.941282746160795</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4730,7 +4724,7 @@
         <v>65.43624161073825</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4750,7 +4744,7 @@
         <v>98.412698412698404</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -4770,7 +4764,7 @@
         <v>83.628819313466622</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4790,7 +4784,7 @@
         <v>92.469018112488087</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4810,7 +4804,7 @@
         <v>97.142857142857139</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -4830,7 +4824,7 @@
         <v>65.812720848056543</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -4850,7 +4844,7 @@
         <v>96.496290189612537</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -4870,7 +4864,7 @@
         <v>98.321208729714598</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -4890,7 +4884,7 @@
         <v>97.800776196636491</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -4910,7 +4904,7 @@
         <v>91.55854271996985</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -4930,7 +4924,7 @@
         <v>90.671090214229793</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -4950,7 +4944,7 @@
         <v>92.846065723897937</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -4981,9 +4975,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5003,7 +4997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5023,7 +5017,7 @@
         <v>69.819819819819813</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5043,7 +5037,7 @@
         <v>71.353251318101925</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -5063,7 +5057,7 @@
         <v>93.808049535603715</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5083,7 +5077,7 @@
         <v>80.119284294234589</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5103,7 +5097,7 @@
         <v>86.051080550098234</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -5123,7 +5117,7 @@
         <v>82.617586912065448</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5143,7 +5137,7 @@
         <v>89.776951672862452</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5163,7 +5157,7 @@
         <v>79.337115556882651</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -5183,7 +5177,7 @@
         <v>98.40425531914893</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -5203,7 +5197,7 @@
         <v>95.375722543352609</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -5223,7 +5217,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -5243,7 +5237,7 @@
         <v>79.424778761061944</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -5263,7 +5257,7 @@
         <v>94.974226804123703</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -5283,7 +5277,7 @@
         <v>87.758112094395273</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -5303,7 +5297,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -5323,7 +5317,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -5343,7 +5337,7 @@
         <v>95.995466565923678</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -5363,7 +5357,7 @@
         <v>95.77133907595929</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -5383,7 +5377,7 @@
         <v>99.115044247787608</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -5403,7 +5397,7 @@
         <v>95.276381909547737</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -5423,7 +5417,7 @@
         <v>93.669985775248932</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -5443,7 +5437,7 @@
         <v>68.253968253968253</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -5463,7 +5457,7 @@
         <v>89.726027397260282</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -5483,7 +5477,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -5503,7 +5497,7 @@
         <v>82.685581033812667</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -5523,7 +5517,7 @@
         <v>86.890951276102086</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -5543,7 +5537,7 @@
         <v>81.518755718206776</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -5563,7 +5557,7 @@
         <v>90.834312573443015</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -5583,7 +5577,7 @@
         <v>90.120481927710841</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -5603,7 +5597,7 @@
         <v>91.211249600511351</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -5623,7 +5617,7 @@
         <v>87.675906183368866</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -5643,7 +5637,7 @@
         <v>87.317247656318642</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -5663,7 +5657,7 @@
         <v>81.935146300398031</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -5683,7 +5677,7 @@
         <v>90.237109561896986</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -5714,9 +5708,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5736,7 +5730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5756,7 +5750,7 @@
         <v>78.813559322033896</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5776,7 +5770,7 @@
         <v>70.184049079754601</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -5796,7 +5790,7 @@
         <v>86.693548387096769</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5816,7 +5810,7 @@
         <v>92.211404728789987</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5836,7 +5830,7 @@
         <v>88.994307400379498</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -5856,7 +5850,7 @@
         <v>89.03394255874673</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5876,7 +5870,7 @@
         <v>84.386617100371751</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5896,7 +5890,7 @@
         <v>95.620437956204384</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -5916,7 +5910,7 @@
         <v>83.856988082340195</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -5936,7 +5930,7 @@
         <v>85.588752196836566</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -5956,7 +5950,7 @@
         <v>99.390243902439025</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -5976,7 +5970,7 @@
         <v>61.471861471861473</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -5996,7 +5990,7 @@
         <v>98.440207972270372</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -6016,7 +6010,7 @@
         <v>90.043763676148785</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -6036,7 +6030,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -6056,7 +6050,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -6076,7 +6070,7 @@
         <v>97.119757453259226</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -6096,7 +6090,7 @@
         <v>93.966817496229254</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -6116,7 +6110,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -6136,7 +6130,7 @@
         <v>57.21153846153846</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -6156,7 +6150,7 @@
         <v>96.087636932707355</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -6176,7 +6170,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -6196,7 +6190,7 @@
         <v>91.891891891891902</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -6216,7 +6210,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -6236,7 +6230,7 @@
         <v>84.127884979190313</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -6256,7 +6250,7 @@
         <v>63.584366062917063</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -6276,7 +6270,7 @@
         <v>87.542087542087543</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -6296,7 +6290,7 @@
         <v>89.143865842894968</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -6316,7 +6310,7 @@
         <v>90.111248454882571</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -6336,7 +6330,7 @@
         <v>92.453884851872559</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -6356,7 +6350,7 @@
         <v>91.670263271471725</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -6376,7 +6370,7 @@
         <v>86.653367669489526</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -6396,7 +6390,7 @@
         <v>84.331061225310464</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -6416,7 +6410,7 @@
         <v>88.514607499517453</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -6443,13 +6437,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -6468,11 +6462,8 @@
       <c r="F1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6491,11 +6482,8 @@
       <c r="F2" s="3">
         <v>92.302533911846353</v>
       </c>
-      <c r="G2">
-        <v>6.4574948637073124E-7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6514,11 +6502,8 @@
       <c r="F3" s="3">
         <v>87.213492633690763</v>
       </c>
-      <c r="G3">
-        <v>4.6699393719515837E-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6537,34 +6522,28 @@
       <c r="F4" s="3">
         <v>88.847252216053505</v>
       </c>
-      <c r="G4">
-        <v>2.1550129625987789E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="8">
-        <v>0.36760979153301282</v>
+        <v>0.36762613164686841</v>
       </c>
       <c r="C5" s="8">
-        <v>0.36868550997590849</v>
+        <v>0.36871586020266511</v>
       </c>
       <c r="D5" s="8">
-        <v>0.41193308839268439</v>
+        <v>0.34950008202898708</v>
       </c>
       <c r="E5" s="3">
-        <v>57.002632428215769</v>
+        <v>56.879874474725632</v>
       </c>
       <c r="F5" s="3">
-        <v>55.164050509986737</v>
-      </c>
-      <c r="G5">
-        <v>0.22293328093432549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87.361636162700876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6583,11 +6562,8 @@
       <c r="F6" s="3">
         <v>82.775758848808891</v>
       </c>
-      <c r="G6">
-        <v>1.1872713392116601E-7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6606,11 +6582,8 @@
       <c r="F7" s="3">
         <v>90.364889141593636</v>
       </c>
-      <c r="G7">
-        <v>0.84966088674339812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6629,11 +6602,8 @@
       <c r="F8" s="3">
         <v>91.698620532831768</v>
       </c>
-      <c r="G8">
-        <v>8.4303799043429439E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6652,36 +6622,30 @@
       <c r="F9" s="3">
         <v>86.985307662904091</v>
       </c>
-      <c r="G9">
-        <v>4.8555836070951128E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="9">
         <f>AVERAGE(B2:B9)</f>
-        <v>0.39029194449039339</v>
+        <v>0.39029398700462536</v>
       </c>
       <c r="C10" s="9">
         <f>AVERAGE(C2:C9)</f>
-        <v>0.39312271643708074</v>
+        <v>0.39312651021542533</v>
       </c>
       <c r="D10" s="9">
         <f>AVERAGE(D2:D9)</f>
-        <v>0.38130171729644624</v>
+        <v>0.37349759150098405</v>
       </c>
       <c r="E10" s="10">
         <f>AVERAGE(E2:E9)</f>
-        <v>62.578048089162976</v>
+        <v>62.562703344976711</v>
       </c>
       <c r="F10" s="10">
         <f>AVERAGE(F2:F9)</f>
-        <v>84.418988182214477</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>88.443686388803741</v>
       </c>
     </row>
   </sheetData>
@@ -6693,11 +6657,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -6717,7 +6681,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6737,7 +6701,7 @@
         <v>94.234473125219139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6757,7 +6721,7 @@
         <v>92.632281049283307</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6777,27 +6741,27 @@
         <v>93.298952612896443</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="8">
-        <v>0.40167422402523179</v>
+        <v>0.40170148424229107</v>
       </c>
       <c r="C5" s="8">
-        <v>0.40322355682937538</v>
+        <v>0.40334162684860109</v>
       </c>
       <c r="D5" s="8">
-        <v>0.39729216059997979</v>
+        <v>0.39729025788749628</v>
       </c>
       <c r="E5" s="3">
-        <v>64.261641568016842</v>
+        <v>64.276651203941015</v>
       </c>
       <c r="F5" s="3">
-        <v>81.945201915961889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80.862242323078362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6817,7 +6781,7 @@
         <v>88.242039556799782</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6837,7 +6801,7 @@
         <v>87.404774419234457</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6857,7 +6821,7 @@
         <v>89.563103543223107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6877,29 +6841,29 @@
         <v>83.133103762854248</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="9">
         <f>AVERAGE(B2:B9)</f>
-        <v>0.43046276625093177</v>
+        <v>0.43046617377806412</v>
       </c>
       <c r="C10" s="9">
         <f>AVERAGE(C2:C9)</f>
-        <v>0.43399276464378667</v>
+        <v>0.43400752339618992</v>
       </c>
       <c r="D10" s="9">
         <f>AVERAGE(D2:D9)</f>
-        <v>0.4240105822085477</v>
+        <v>0.42401034436948726</v>
       </c>
       <c r="E10" s="10">
         <f>AVERAGE(E2:E9)</f>
-        <v>74.309903377984512</v>
+        <v>74.311779582475026</v>
       </c>
       <c r="F10" s="10">
         <f>AVERAGE(F2:F9)</f>
-        <v>88.806741248184053</v>
+        <v>88.671371299073613</v>
       </c>
     </row>
   </sheetData>
@@ -6911,11 +6875,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6935,7 +6899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6955,7 +6919,7 @@
         <v>88.16901408450704</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -6975,7 +6939,7 @@
         <v>89.371980676328505</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6995,7 +6959,7 @@
         <v>96.044303797468359</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -7015,7 +6979,7 @@
         <v>94.797687861271669</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -7035,7 +6999,7 @@
         <v>98.589065255731924</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -7055,7 +7019,7 @@
         <v>96.562032884902834</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -7075,7 +7039,7 @@
         <v>90.207156308851225</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -7095,7 +7059,7 @@
         <v>95.135706732463859</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -7115,7 +7079,7 @@
         <v>85.017421602787451</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -7135,7 +7099,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -7155,7 +7119,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -7175,7 +7139,7 @@
         <v>98.148148148148152</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -7195,7 +7159,7 @@
         <v>71.376811594202891</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -7215,7 +7179,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -7235,7 +7199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -7255,7 +7219,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -7275,7 +7239,7 @@
         <v>95.330112721417066</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -7295,7 +7259,7 @@
         <v>97.177726926010678</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -7315,7 +7279,7 @@
         <v>99.750623441396513</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -7335,7 +7299,7 @@
         <v>97.476340694006311</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -7355,7 +7319,7 @@
         <v>99.565532223026793</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -7375,7 +7339,7 @@
         <v>93.492407809110631</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -7395,7 +7359,7 @@
         <v>92.65306122448979</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -7415,7 +7379,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -7435,7 +7399,7 @@
         <v>89.978719288063459</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -7455,7 +7419,7 @@
         <v>83.967704728950395</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -7475,7 +7439,7 @@
         <v>95.875343721356558</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -7495,7 +7459,7 @@
         <v>92.497069167643602</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -7515,7 +7479,7 @@
         <v>97.768395657418566</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -7535,7 +7499,7 @@
         <v>97.571108980504945</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -7555,7 +7519,7 @@
         <v>99.317988064791123</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -7575,7 +7539,7 @@
         <v>93.433658543794024</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -7595,7 +7559,7 @@
         <v>93.391605838437371</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -7615,7 +7579,7 @@
         <v>93.193081192460028</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -7646,9 +7610,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -7668,7 +7632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7688,7 +7652,7 @@
         <v>90.258208938230283</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7708,7 +7672,7 @@
         <v>81.281399298143043</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7728,27 +7692,27 @@
         <v>90.254057577454347</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="8">
-        <v>0.36201231848171822</v>
+        <v>0.36200874352243889</v>
       </c>
       <c r="C5" s="8">
-        <v>0.36078229379323118</v>
+        <v>0.36071918404189213</v>
       </c>
       <c r="D5" s="8">
-        <v>0.44358789117910502</v>
+        <v>0.33476115032180859</v>
       </c>
       <c r="E5" s="3">
-        <v>46.61371683992472</v>
+        <v>46.261946351977564</v>
       </c>
       <c r="F5" s="3">
-        <v>49.0565729249507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>89.360106672105957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7768,7 +7732,7 @@
         <v>76.807554959542188</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7788,7 +7752,7 @@
         <v>92.485093772079495</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7808,7 +7772,7 @@
         <v>93.521052360620416</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7828,29 +7792,29 @@
         <v>89.37585853070722</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="9">
         <f>AVERAGE(B2:B9)</f>
-        <v>0.3819576218214813</v>
+        <v>0.38195717495157133</v>
       </c>
       <c r="C10" s="9">
         <f>AVERAGE(C2:C9)</f>
-        <v>0.38237343182767158</v>
+        <v>0.3823655431087542</v>
       </c>
       <c r="D10" s="9">
         <f>AVERAGE(D2:D9)</f>
-        <v>0.37292999174444752</v>
+        <v>0.35932664913728551</v>
       </c>
       <c r="E10" s="10">
         <f>AVERAGE(E2:E9)</f>
-        <v>50.418036159896481</v>
+        <v>50.374064848903096</v>
       </c>
       <c r="F10" s="10">
         <f>AVERAGE(F2:F9)</f>
-        <v>82.879974795215972</v>
+        <v>87.917916513610365</v>
       </c>
     </row>
   </sheetData>
@@ -7862,11 +7826,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -7886,7 +7850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7906,7 +7870,7 @@
         <v>93.857967699577245</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7926,7 +7890,7 @@
         <v>91.964007079037188</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7946,27 +7910,27 @@
         <v>81.957678247326641</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="8">
-        <v>0.3431410271287274</v>
+        <v>0.34318058726475331</v>
       </c>
       <c r="C5" s="8">
-        <v>0.34769583372131679</v>
+        <v>0.34779868126091151</v>
       </c>
       <c r="D5" s="8">
-        <v>0.37230863998009672</v>
+        <v>0.32697664623992678</v>
       </c>
       <c r="E5" s="3">
-        <v>67.553192868342251</v>
+        <v>67.685260241649715</v>
       </c>
       <c r="F5" s="3">
-        <v>38.852860678359143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>90.435080557628936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7986,7 +7950,7 @@
         <v>88.393285363741853</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8006,7 +7970,7 @@
         <v>89.271503397926438</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8026,7 +7990,7 @@
         <v>90.709968674802724</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8046,29 +8010,29 @@
         <v>86.397917094176591</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="9">
         <f>AVERAGE(B2:B9)</f>
-        <v>0.36453709954469338</v>
+        <v>0.36454204456169659</v>
       </c>
       <c r="C10" s="9">
         <f>AVERAGE(C2:C9)</f>
-        <v>0.37092798100655361</v>
+        <v>0.37094083694900293</v>
       </c>
       <c r="D10" s="9">
         <f>AVERAGE(D2:D9)</f>
-        <v>0.35342916203048591</v>
+        <v>0.34776266281296464</v>
       </c>
       <c r="E10" s="10">
         <f>AVERAGE(E2:E9)</f>
-        <v>72.262548263189316</v>
+        <v>72.279056684852748</v>
       </c>
       <c r="F10" s="10">
         <f>AVERAGE(F2:F9)</f>
-        <v>82.675648529368488</v>
+        <v>89.123426014277186</v>
       </c>
     </row>
   </sheetData>
@@ -8080,11 +8044,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8104,7 +8068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -8124,7 +8088,7 @@
         <v>96.396396396396398</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8144,7 +8108,7 @@
         <v>98.082744702320895</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -8164,7 +8128,7 @@
         <v>98.196166854565945</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -8184,7 +8148,7 @@
         <v>98.620689655172413</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -8204,7 +8168,7 @@
         <v>97.067448680351902</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -8224,7 +8188,7 @@
         <v>97.570093457943926</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -8244,7 +8208,7 @@
         <v>79.607843137254903</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -8264,7 +8228,7 @@
         <v>96.558823529411768</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -8284,7 +8248,7 @@
         <v>86.893203883495147</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -8304,7 +8268,7 @@
         <v>70.443925233644862</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -8324,7 +8288,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -8344,7 +8308,7 @@
         <v>96.393442622950815</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -8364,7 +8328,7 @@
         <v>72.727272727272734</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -8384,7 +8348,7 @@
         <v>57.551669316375197</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -8404,7 +8368,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -8424,7 +8388,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -8444,7 +8408,7 @@
         <v>98.645759087669276</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -8464,7 +8428,7 @@
         <v>85.409652076318736</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -8484,7 +8448,7 @@
         <v>89.696969696969703</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -8504,7 +8468,7 @@
         <v>93.559322033898312</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -8524,7 +8488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -8544,7 +8508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -8564,7 +8528,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -8584,7 +8548,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -8604,7 +8568,7 @@
         <v>88.970588235294116</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -8624,7 +8588,7 @@
         <v>89.333333333333329</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -8644,7 +8608,7 @@
         <v>89.756507136859781</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -8664,7 +8628,7 @@
         <v>93.556928508384814</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -8684,7 +8648,7 @@
         <v>99.402308326463313</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -8704,7 +8668,7 @@
         <v>97.009502515371722</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -8724,7 +8688,7 @@
         <v>99.006050129645644</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -8744,7 +8708,7 @@
         <v>91.171409279898697</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -8764,7 +8728,7 @@
         <v>95.077340412000908</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -8784,7 +8748,7 @@
         <v>87.323336684000537</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -8813,11 +8777,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="AL26" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8837,7 +8801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -8857,7 +8821,7 @@
         <v>94.490818030050079</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8877,7 +8841,7 @@
         <v>97.751479289940818</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -8897,7 +8861,7 @@
         <v>93.56814701378255</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -8917,7 +8881,7 @@
         <v>91.129032258064512</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -8937,7 +8901,7 @@
         <v>89.150090415913198</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -8957,7 +8921,7 @@
         <v>95.99303135888502</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -8977,7 +8941,7 @@
         <v>90.429042904290426</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -8997,7 +8961,7 @@
         <v>83.949002942137952</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -9017,7 +8981,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -9037,7 +9001,7 @@
         <v>95.36862003780719</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -9057,7 +9021,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -9077,7 +9041,7 @@
         <v>94.929006085192697</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -9097,7 +9061,7 @@
         <v>70.901639344262293</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -9117,7 +9081,7 @@
         <v>54.862842892768093</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -9137,7 +9101,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -9157,7 +9121,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -9177,7 +9141,7 @@
         <v>98.125836680053553</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -9197,7 +9161,7 @@
         <v>98.663522012578625</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -9217,7 +9181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -9237,7 +9201,7 @@
         <v>69.655172413793096</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -9257,7 +9221,7 @@
         <v>47.294589178356709</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -9277,7 +9241,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -9297,7 +9261,7 @@
         <v>79.78142076502732</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -9317,7 +9281,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -9337,7 +9301,7 @@
         <v>92.690001933861922</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -9357,7 +9321,7 @@
         <v>85.730858468677496</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -9377,7 +9341,7 @@
         <v>94.36363636363636</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -9397,7 +9361,7 @@
         <v>81.924882629107969</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -9417,7 +9381,7 @@
         <v>99.718536389223971</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -9437,7 +9401,7 @@
         <v>93.891909178125999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -9457,7 +9421,7 @@
         <v>98.634229620145106</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -9477,7 +9441,7 @@
         <v>88.192205700218565</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -9497,7 +9461,7 @@
         <v>93.215948752989519</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -9517,7 +9481,7 @@
         <v>82.794304362664789</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -9548,9 +9512,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9570,7 +9534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -9590,7 +9554,7 @@
         <v>89.44805194805194</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -9610,7 +9574,7 @@
         <v>89.364844903988185</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -9630,7 +9594,7 @@
         <v>93.771234428086075</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -9650,7 +9614,7 @@
         <v>89.406099518459072</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -9670,7 +9634,7 @@
         <v>93.442622950819683</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -9690,7 +9654,7 @@
         <v>95.767195767195773</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -9710,7 +9674,7 @@
         <v>93.140243902439025</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -9730,7 +9694,7 @@
         <v>90.054794520547944</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -9750,7 +9714,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -9770,7 +9734,7 @@
         <v>76.871657754010698</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -9790,7 +9754,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -9810,7 +9774,7 @@
         <v>87.547169811320757</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -9830,7 +9794,7 @@
         <v>63.636363636363633</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -9850,7 +9814,7 @@
         <v>53.510436432637583</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -9870,7 +9834,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -9890,7 +9854,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -9910,7 +9874,7 @@
         <v>99.34264585045193</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -9930,7 +9894,7 @@
         <v>99.731543624161077</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -9950,7 +9914,7 @@
         <v>99.414348462664719</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -9970,7 +9934,7 @@
         <v>73.779637377963738</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -9990,7 +9954,7 @@
         <v>61.333333333333329</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -10010,7 +9974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -10030,7 +9994,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -10050,7 +10014,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -10070,7 +10034,7 @@
         <v>92.301886792452819</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -10090,7 +10054,7 @@
         <v>84.586108468125602</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -10110,7 +10074,7 @@
         <v>81.825795644891116</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -10130,7 +10094,7 @@
         <v>93.899204244031836</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -10150,7 +10114,7 @@
         <v>97.136382365059745</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -10170,7 +10134,7 @@
         <v>91.827595857822558</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -10190,7 +10154,7 @@
         <v>98.965071151358345</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -10210,7 +10174,7 @@
         <v>86.23477956716296</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -10230,7 +10194,7 @@
         <v>92.04861334557711</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -10250,7 +10214,7 @@
         <v>79.768494233621283</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -10281,9 +10245,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10303,7 +10267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -10323,7 +10287,7 @@
         <v>91.441969519343488</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -10343,7 +10307,7 @@
         <v>80.497131931166336</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -10363,7 +10327,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -10383,7 +10347,7 @@
         <v>95.826086956521735</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -10403,7 +10367,7 @@
         <v>98.780487804878049</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -10423,7 +10387,7 @@
         <v>95.865237366003058</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -10443,7 +10407,7 @@
         <v>82.713347921225377</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -10463,7 +10427,7 @@
         <v>94.961882664898909</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -10483,7 +10447,7 @@
         <v>98.091603053435122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -10503,7 +10467,7 @@
         <v>51.086956521739133</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -10523,7 +10487,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -10543,7 +10507,7 @@
         <v>96.705107084019772</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -10563,7 +10527,7 @@
         <v>80.145719489981786</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -10583,7 +10547,7 @@
         <v>89.600000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -10603,7 +10567,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -10623,7 +10587,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -10643,7 +10607,7 @@
         <v>96.994991652754592</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -10663,7 +10627,7 @@
         <v>95.970900951315059</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -10683,7 +10647,7 @@
         <v>91.456310679611647</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -10703,7 +10667,7 @@
         <v>94.619666048237477</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -10723,7 +10687,7 @@
         <v>99.421965317919074</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -10743,7 +10707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -10763,7 +10727,7 @@
         <v>96.202531645569621</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -10783,7 +10747,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -10803,7 +10767,7 @@
         <v>88.544891640866879</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -10823,7 +10787,7 @@
         <v>95.155709342560556</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -10843,7 +10807,7 @@
         <v>87.123287671232873</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -10863,7 +10827,7 @@
         <v>96.009389671361504</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -10883,7 +10847,7 @@
         <v>24.08040201005025</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -10903,7 +10867,7 @@
         <v>94.021739130434781</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -10923,7 +10887,7 @@
         <v>95.650319829424305</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -10943,7 +10907,7 @@
         <v>89.17562331307181</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -10963,7 +10927,7 @@
         <v>91.699779292503578</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -10983,7 +10947,7 @@
         <v>91.173664239190956</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -11014,9 +10978,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11036,7 +11000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -11056,7 +11020,7 @@
         <v>88.461538461538453</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -11076,7 +11040,7 @@
         <v>94.551282051282044</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -11096,7 +11060,7 @@
         <v>93.892045454545453</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -11116,7 +11080,7 @@
         <v>97.698209718670086</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -11136,7 +11100,7 @@
         <v>96.997690531177824</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -11156,7 +11120,7 @@
         <v>97.337278106508876</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -11176,7 +11140,7 @@
         <v>95.348837209302332</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -11196,7 +11160,7 @@
         <v>97.954035874439455</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -11216,7 +11180,7 @@
         <v>73.044217687074834</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -11236,7 +11200,7 @@
         <v>82.650602409638552</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -11256,7 +11220,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -11276,7 +11240,7 @@
         <v>97.129186602870803</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -11296,7 +11260,7 @@
         <v>77.507029053420808</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -11316,7 +11280,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -11336,7 +11300,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -11356,7 +11320,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -11376,7 +11340,7 @@
         <v>97.607318789584795</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -11396,7 +11360,7 @@
         <v>97.064777327935232</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -11416,7 +11380,7 @@
         <v>89.662921348314612</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -11436,7 +11400,7 @@
         <v>93.672627235213199</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -11456,7 +11420,7 @@
         <v>87.051792828685265</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -11476,7 +11440,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -11496,7 +11460,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -11516,7 +11480,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -11536,7 +11500,7 @@
         <v>84.119200301772906</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -11556,7 +11520,7 @@
         <v>87.988560533841749</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -11576,7 +11540,7 @@
         <v>91.359060402684563</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -11596,7 +11560,7 @@
         <v>89.065255731922406</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -11616,7 +11580,7 @@
         <v>19.019163404079951</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -11636,7 +11600,7 @@
         <v>96.393625943528093</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -11656,7 +11620,7 @@
         <v>98.876889848812098</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -11676,7 +11640,7 @@
         <v>88.518881119035186</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -11696,7 +11660,7 @@
         <v>94.898125933289293</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -11716,7 +11680,7 @@
         <v>89.334450915717753</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -11745,11 +11709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11769,167 +11733,167 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>0.44076397713640131</v>
+        <v>0.44127433197675542</v>
       </c>
       <c r="C2" s="2">
-        <v>0.44253213373995709</v>
+        <v>0.44161241007092539</v>
       </c>
       <c r="D2" s="2">
-        <v>0.43950021368902531</v>
+        <v>0.43969244955537568</v>
       </c>
       <c r="E2" s="3">
-        <v>71.965811965811966</v>
+        <v>52.136752136752143</v>
       </c>
       <c r="F2" s="3">
-        <v>81.025641025641022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75.384615384615387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>0.4219515922231275</v>
+        <v>0.42214335691112281</v>
       </c>
       <c r="C3" s="2">
-        <v>0.42209180733901253</v>
+        <v>0.42239531306009231</v>
       </c>
       <c r="D3" s="2">
-        <v>0.42139635759155603</v>
+        <v>0.42028346998149119</v>
       </c>
       <c r="E3" s="3">
-        <v>52.064631956912031</v>
+        <v>57.271095152603237</v>
       </c>
       <c r="F3" s="3">
-        <v>64.272890484739676</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>74.326750448833039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>0.46217517391916418</v>
+        <v>0.46213165711904652</v>
       </c>
       <c r="C4" s="2">
-        <v>0.46723268797523532</v>
+        <v>0.46722695804630249</v>
       </c>
       <c r="D4" s="2">
-        <v>0.45663914904896358</v>
+        <v>0.45676675853846771</v>
       </c>
       <c r="E4" s="3">
-        <v>86.239782016348769</v>
+        <v>86.376021798365116</v>
       </c>
       <c r="F4" s="3">
-        <v>97.820163487738427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95.776566757493185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0.4195818931741403</v>
+        <v>0.41874272149161718</v>
       </c>
       <c r="C5" s="2">
-        <v>0.42054091065547072</v>
+        <v>0.42249157548572758</v>
       </c>
       <c r="D5" s="2">
-        <v>0.41111588684087402</v>
+        <v>0.41282162142713202</v>
       </c>
       <c r="E5" s="3">
-        <v>58.634538152610439</v>
+        <v>77.710843373493972</v>
       </c>
       <c r="F5" s="3">
-        <v>88.152610441767067</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>86.144578313253021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0.35364058858199909</v>
+        <v>0.35443176819251332</v>
       </c>
       <c r="C6" s="2">
-        <v>0.35637466176284521</v>
+        <v>0.35575923946445592</v>
       </c>
       <c r="D6" s="2">
-        <v>0.34741628820381021</v>
+        <v>0.34668140298075367</v>
       </c>
       <c r="E6" s="3">
-        <v>71.322160148975783</v>
+        <v>63.3147113594041</v>
       </c>
       <c r="F6" s="3">
-        <v>86.219739292364991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87.523277467411546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0.34262321511245919</v>
+        <v>0.34348225645889319</v>
       </c>
       <c r="C7" s="2">
-        <v>0.34316683187792912</v>
+        <v>0.34357986936444151</v>
       </c>
       <c r="D7" s="2">
-        <v>0.33643574921285929</v>
+        <v>0.33663934811960472</v>
       </c>
       <c r="E7" s="3">
-        <v>57.26495726495726</v>
+        <v>57.051282051282051</v>
       </c>
       <c r="F7" s="3">
-        <v>82.90598290598291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83.974358974358978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>0.31106412953819268</v>
+        <v>0.31300248030776212</v>
       </c>
       <c r="C8" s="2">
-        <v>0.31311777823432863</v>
+        <v>0.31273334776114969</v>
       </c>
       <c r="D8" s="2">
-        <v>0.30989568726907391</v>
+        <v>0.30815394041987793</v>
       </c>
       <c r="E8" s="3">
-        <v>67.093235831809878</v>
+        <v>48.811700182815358</v>
       </c>
       <c r="F8" s="3">
-        <v>68.738574040219376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77.696526508226697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>0.35413918448789411</v>
+        <v>0.35412150433358391</v>
       </c>
       <c r="C9" s="2">
-        <v>0.36199126475876531</v>
+        <v>0.3617987564995962</v>
       </c>
       <c r="D9" s="2">
-        <v>0.34707626021002819</v>
+        <v>0.34704802255646999</v>
       </c>
       <c r="E9" s="3">
-        <v>82.702091577162236</v>
+        <v>81.684567552289437</v>
       </c>
       <c r="F9" s="3">
-        <v>91.040135669869983</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>90.616167326172985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -11949,27 +11913,27 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>0.3004772883348536</v>
+        <v>0.3000322181252395</v>
       </c>
       <c r="C11" s="2">
-        <v>0.29630788921139972</v>
+        <v>0.29626808703734081</v>
       </c>
       <c r="D11" s="2">
-        <v>0.25819307179702539</v>
+        <v>0.25819315557727152</v>
       </c>
       <c r="E11" s="3">
-        <v>30.749682337992368</v>
+        <v>32.147395171537482</v>
       </c>
       <c r="F11" s="3">
-        <v>96.950444726810673</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>97.077509529860222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -11989,67 +11953,67 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>0.32847723015888602</v>
+        <v>0.32835636454606731</v>
       </c>
       <c r="C13" s="2">
-        <v>0.33085337021522759</v>
+        <v>0.33035506896095018</v>
       </c>
       <c r="D13" s="2">
-        <v>0.31608960203256542</v>
+        <v>0.31548534133615402</v>
       </c>
       <c r="E13" s="3">
-        <v>60.032102728731942</v>
+        <v>59.069020866773677</v>
       </c>
       <c r="F13" s="3">
-        <v>92.455858747993574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91.974317817014452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>0.38670715789241389</v>
+        <v>0.38667766785936658</v>
       </c>
       <c r="C14" s="2">
-        <v>0.39316607901341177</v>
+        <v>0.39314147012980449</v>
       </c>
       <c r="D14" s="2">
-        <v>0.38715268756518539</v>
+        <v>0.3871757861667568</v>
       </c>
       <c r="E14" s="3">
-        <v>71.285475792988322</v>
+        <v>71.786310517529216</v>
       </c>
       <c r="F14" s="3">
-        <v>63.939899833055087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64.106844741235392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0.35020977595296149</v>
+        <v>0.3499521864866772</v>
       </c>
       <c r="C15" s="2">
-        <v>0.34561337011155718</v>
+        <v>0.34561121135563588</v>
       </c>
       <c r="D15" s="2">
-        <v>0.32900038592110697</v>
+        <v>0.32900053950498093</v>
       </c>
       <c r="E15" s="3">
-        <v>31.79723502304148</v>
+        <v>31.566820276497701</v>
       </c>
       <c r="F15" s="3">
-        <v>92.165898617511516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91.935483870967744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -12069,7 +12033,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -12089,147 +12053,147 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>0.3629587177866947</v>
+        <v>0.36303464874768088</v>
       </c>
       <c r="C18" s="2">
-        <v>0.37018212696148373</v>
+        <v>0.37035220653890372</v>
       </c>
       <c r="D18" s="2">
-        <v>0.3416308228709431</v>
+        <v>0.34166328934419748</v>
       </c>
       <c r="E18" s="3">
-        <v>77.387229056824836</v>
+        <v>79.027533684827176</v>
       </c>
       <c r="F18" s="3">
-        <v>98.418277680140591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>98.242530755711783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>0.43394446187126262</v>
+        <v>0.43417188791743289</v>
       </c>
       <c r="C19" s="2">
-        <v>0.43428858958985211</v>
+        <v>0.4342890737309783</v>
       </c>
       <c r="D19" s="2">
-        <v>0.5478826609017976</v>
+        <v>0.41257828266312552</v>
       </c>
       <c r="E19" s="3">
-        <v>50.032237266279822</v>
+        <v>48.6782720825274</v>
       </c>
       <c r="F19" s="3">
-        <v>1.9342359767891679</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95.809155383623462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>0.38753921940031422</v>
+        <v>0.38745612554912068</v>
       </c>
       <c r="C20" s="2">
-        <v>0.38053879045252409</v>
+        <v>0.38055951403811361</v>
       </c>
       <c r="D20" s="2">
-        <v>0.59429919326839109</v>
+        <v>0.35230935311556882</v>
       </c>
       <c r="E20" s="3">
         <v>17.427385892116181</v>
       </c>
       <c r="F20" s="3">
-        <v>8.9211618257261414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99.37759336099586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>0.23080860102842479</v>
+        <v>0.2297503957203216</v>
       </c>
       <c r="C21" s="2">
-        <v>0.2339845085411755</v>
+        <v>0.23488173568470341</v>
       </c>
       <c r="D21" s="2">
-        <v>0.24081800324898839</v>
+        <v>0.2262767949749275</v>
       </c>
       <c r="E21" s="3">
-        <v>60.352422907488993</v>
+        <v>71.585903083700444</v>
       </c>
       <c r="F21" s="3">
-        <v>39.867841409691628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71.145374449339201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>0.31614956915432513</v>
+        <v>0.31663571748699088</v>
       </c>
       <c r="C22" s="2">
-        <v>0.31835459936332011</v>
+        <v>0.31835543587109921</v>
       </c>
       <c r="D22" s="2">
-        <v>0.57217322577551466</v>
+        <v>0.24927740980925159</v>
       </c>
       <c r="E22" s="3">
-        <v>52.875000000000007</v>
+        <v>51.875000000000007</v>
       </c>
       <c r="F22" s="3">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99.875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>0.33500300922266601</v>
+        <v>0.33508480217044118</v>
       </c>
       <c r="C23" s="2">
-        <v>0.30636402292346138</v>
+        <v>0.30643433867377662</v>
       </c>
       <c r="D23" s="2">
-        <v>0.82088909507608709</v>
+        <v>0.26409471340014701</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>0.34219933706490052</v>
+        <v>0.34217896035420131</v>
       </c>
       <c r="C24" s="2">
-        <v>0.32757678470840518</v>
+        <v>0.32751463393816049</v>
       </c>
       <c r="D24" s="2">
-        <v>0.63382022053605225</v>
+        <v>0.28891852696371412</v>
       </c>
       <c r="E24" s="3">
         <v>3.4246575342465748</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -12249,224 +12213,224 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>0.34364032622675589</v>
+        <v>0.34360728400054158</v>
       </c>
       <c r="C26" s="2">
-        <v>0.3478314152896963</v>
+        <v>0.34759191399173028</v>
       </c>
       <c r="D26" s="2">
-        <v>0.33353065764517381</v>
+        <v>0.33267260733760989</v>
       </c>
       <c r="E26" s="3">
-        <v>72.901353965183759</v>
+        <v>72.920696324951635</v>
       </c>
       <c r="F26" s="3">
-        <v>86.65377176015474</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87.717601547388782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>0.31537458800500079</v>
+        <v>0.31624500506310282</v>
       </c>
       <c r="C27" s="2">
-        <v>0.31592533661086691</v>
+        <v>0.3166605115244413</v>
       </c>
       <c r="D27" s="2">
-        <v>0.31057730838300562</v>
+        <v>0.31051207173486378</v>
       </c>
       <c r="E27" s="3">
-        <v>58.410138248847929</v>
+        <v>59.677419354838712</v>
       </c>
       <c r="F27" s="3">
-        <v>77.304147465437794</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>81.451612903225808</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>0.28525913227891331</v>
+        <v>0.28490157515363451</v>
       </c>
       <c r="C28" s="2">
-        <v>0.2829849583447282</v>
+        <v>0.28404683243299778</v>
       </c>
       <c r="D28" s="2">
-        <v>0.279738788018074</v>
+        <v>0.27924801805263738</v>
       </c>
       <c r="E28" s="3">
-        <v>32.846715328467162</v>
+        <v>43.156934306569347</v>
       </c>
       <c r="F28" s="3">
-        <v>65.693430656934311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75.364963503649633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>0.35672884279845279</v>
+        <v>0.35680224222186041</v>
       </c>
       <c r="C29" s="2">
-        <v>0.36881064110113582</v>
+        <v>0.36927762255885022</v>
       </c>
       <c r="D29" s="2">
-        <v>0.38344128695529389</v>
+        <v>0.34511679125424721</v>
       </c>
       <c r="E29" s="3">
-        <v>92.145369284876907</v>
+        <v>91.793669402110197</v>
       </c>
       <c r="F29" s="3">
-        <v>9.4958968347010551</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>94.255568581477149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>0.37579491547038879</v>
+        <v>0.37585714330344139</v>
       </c>
       <c r="C30" s="2">
-        <v>0.38137165218303481</v>
+        <v>0.38140879630410679</v>
       </c>
       <c r="D30" s="2">
-        <v>0.39580941770890982</v>
+        <v>0.34883039393427911</v>
       </c>
       <c r="E30" s="3">
-        <v>68.302493966210776</v>
+        <v>68.282381335478675</v>
       </c>
       <c r="F30" s="3">
-        <v>31.134352373290429</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>97.325020112630739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>0.32438066061347609</v>
+        <v>0.32463635680593322</v>
       </c>
       <c r="C31" s="2">
-        <v>0.33171279957408301</v>
+        <v>0.33186599653822252</v>
       </c>
       <c r="D31" s="2">
-        <v>0.37731260789648369</v>
+        <v>0.30625644095451843</v>
       </c>
       <c r="E31" s="3">
-        <v>72.712731925783743</v>
+        <v>72.168905950095976</v>
       </c>
       <c r="F31" s="3">
-        <v>18.202175303902749</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>94.081893793985927</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="2">
-        <v>0.27838247226607837</v>
+        <v>0.27805842610854642</v>
       </c>
       <c r="C32" s="2">
-        <v>0.28266318726115353</v>
+        <v>0.28281920128432109</v>
       </c>
       <c r="D32" s="2">
-        <v>0.34689087742366392</v>
+        <v>0.25062535409444142</v>
       </c>
       <c r="E32" s="3">
-        <v>66.97952218430035</v>
+        <v>68.941979522184312</v>
       </c>
       <c r="F32" s="3">
-        <v>7.9351535836177476</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>97.952218430034137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="5">
-        <v>0.35230673306539029</v>
+        <v>0.35241419555430381</v>
       </c>
       <c r="C33" s="5">
-        <v>0.35290685376154091</v>
+        <v>0.353039658474878</v>
       </c>
       <c r="D33" s="5">
-        <v>0.40533559634963279</v>
+        <v>0.33332007245376399</v>
       </c>
       <c r="E33" s="6">
-        <v>56.421113936844982</v>
+        <v>56.457202265884241</v>
       </c>
       <c r="F33" s="6">
-        <v>55.923010928618481</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>88.812904998519429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="5">
-        <v>0.3931143670979263</v>
+        <v>0.39360122463681579</v>
       </c>
       <c r="C34" s="5">
-        <v>0.39500811594068269</v>
+        <v>0.39511410189329921</v>
       </c>
       <c r="D34" s="5">
-        <v>0.38891419026516599</v>
+        <v>0.3887198558603861</v>
       </c>
       <c r="E34" s="6">
-        <v>66.369302476775161</v>
+        <v>63.238915150673712</v>
       </c>
       <c r="F34" s="6">
-        <v>81.305085954064779</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82.975239122027418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="5">
-        <v>0.34405112936296639</v>
+        <v>0.34395437327476042</v>
       </c>
       <c r="C35" s="5">
-        <v>0.34160178298754862</v>
+        <v>0.3416301277049219</v>
       </c>
       <c r="D35" s="5">
-        <v>0.4490854357669738</v>
+        <v>0.31433510128438052</v>
       </c>
       <c r="E35" s="6">
-        <v>44.83879334307273</v>
+        <v>45.689405555170431</v>
       </c>
       <c r="F35" s="6">
-        <v>49.036979540632373</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91.679998102910091</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="5">
-        <v>0.3256515625227237</v>
+        <v>0.32572971895100861</v>
       </c>
       <c r="C36" s="5">
-        <v>0.33018571290924259</v>
+        <v>0.33052441066209581</v>
       </c>
       <c r="D36" s="5">
-        <v>0.34675727771865789</v>
+        <v>0.31046595390894238</v>
       </c>
       <c r="E36" s="6">
-        <v>66.328332129095799</v>
+        <v>68.134569456604126</v>
       </c>
       <c r="F36" s="6">
-        <v>42.345561139719827</v>
+        <v>89.735554124627456</v>
       </c>
     </row>
   </sheetData>
@@ -12478,11 +12442,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12502,207 +12466,207 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>0.49476731185842798</v>
+        <v>0.49375689800356892</v>
       </c>
       <c r="C2" s="2">
-        <v>0.49421059152086599</v>
+        <v>0.49443683523532522</v>
       </c>
       <c r="D2" s="2">
-        <v>0.49340458540356158</v>
+        <v>0.49359185581167508</v>
       </c>
       <c r="E2" s="3">
-        <v>47.709320695102683</v>
+        <v>63.033175355450233</v>
       </c>
       <c r="F2" s="3">
-        <v>63.191153238546597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62.559241706161139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>0.47038462570247769</v>
+        <v>0.4701149796594164</v>
       </c>
       <c r="C3" s="2">
-        <v>0.47155043985787809</v>
+        <v>0.47088591117629702</v>
       </c>
       <c r="D3" s="2">
-        <v>0.46819194232905498</v>
+        <v>0.46828099589244399</v>
       </c>
       <c r="E3" s="3">
-        <v>64.376130198915007</v>
+        <v>57.866184448462931</v>
       </c>
       <c r="F3" s="3">
-        <v>90.415913200723324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80.650994575045203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>0.46588262092799693</v>
+        <v>0.46597865486574502</v>
       </c>
       <c r="C4" s="2">
-        <v>0.46911501154275309</v>
+        <v>0.46913913615941327</v>
       </c>
       <c r="D4" s="2">
-        <v>0.46289716570783263</v>
+        <v>0.46331623866584509</v>
       </c>
       <c r="E4" s="3">
-        <v>80.061823802163829</v>
+        <v>77.588871715610509</v>
       </c>
       <c r="F4" s="3">
-        <v>88.562596599690877</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82.07109737248841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0.39119709893854698</v>
+        <v>0.39043571850357012</v>
       </c>
       <c r="C5" s="2">
-        <v>0.39470993419482803</v>
+        <v>0.39537252318857657</v>
       </c>
       <c r="D5" s="2">
-        <v>0.38541998393233501</v>
+        <v>0.38560503766419402</v>
       </c>
       <c r="E5" s="3">
-        <v>80.336134453781511</v>
+        <v>86.21848739495799</v>
       </c>
       <c r="F5" s="3">
-        <v>87.058823529411768</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>88.403361344537814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0.38393138889690182</v>
+        <v>0.38421370778517311</v>
       </c>
       <c r="C6" s="2">
-        <v>0.38481550636307471</v>
+        <v>0.3855198675587726</v>
       </c>
       <c r="D6" s="2">
-        <v>0.37897737642214302</v>
+        <v>0.37891564280783863</v>
       </c>
       <c r="E6" s="3">
-        <v>56.483126110124338</v>
+        <v>60.568383658969807</v>
       </c>
       <c r="F6" s="3">
-        <v>79.218472468916517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>81.52753108348135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0.34272726584051111</v>
+        <v>0.3414035474399682</v>
       </c>
       <c r="C7" s="2">
-        <v>0.34388145237326712</v>
+        <v>0.34398601551232549</v>
       </c>
       <c r="D7" s="2">
-        <v>0.33310402271330852</v>
+        <v>0.33213013612668779</v>
       </c>
       <c r="E7" s="3">
-        <v>66.608996539792386</v>
+        <v>73.356401384083043</v>
       </c>
       <c r="F7" s="3">
-        <v>95.155709342560556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>94.290657439446363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>0.32274825450289868</v>
+        <v>0.32270870067692331</v>
       </c>
       <c r="C8" s="2">
-        <v>0.32179004817381029</v>
+        <v>0.32164377379661008</v>
       </c>
       <c r="D8" s="2">
-        <v>0.31769584003531859</v>
+        <v>0.31918471243356078</v>
       </c>
       <c r="E8" s="3">
-        <v>39.502332814930007</v>
+        <v>38.569206842923791</v>
       </c>
       <c r="F8" s="3">
-        <v>74.494556765163296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>61.741835147744951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>0.47558428348075948</v>
+        <v>0.47562925057596639</v>
       </c>
       <c r="C9" s="2">
-        <v>0.47948437888153311</v>
+        <v>0.47945608078850321</v>
       </c>
       <c r="D9" s="2">
-        <v>0.54602803969747715</v>
+        <v>0.4510393257462747</v>
       </c>
       <c r="E9" s="3">
-        <v>70.276194651468643</v>
+        <v>69.79395002192021</v>
       </c>
       <c r="F9" s="3">
-        <v>8.833844804910127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>97.15037264357737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>0.38380803599811331</v>
+        <v>0.38345322911319668</v>
       </c>
       <c r="C10" s="2">
-        <v>0.38639144689371052</v>
+        <v>0.38635290492954422</v>
       </c>
       <c r="D10" s="2">
-        <v>0.37486822483222559</v>
+        <v>0.37478964784981861</v>
       </c>
       <c r="E10" s="3">
-        <v>59.746835443037973</v>
+        <v>62.784810126582279</v>
       </c>
       <c r="F10" s="3">
         <v>87.594936708860757</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>0.37756476278398859</v>
+        <v>0.3776891233137879</v>
       </c>
       <c r="C11" s="2">
-        <v>0.37132136409235122</v>
+        <v>0.37130525271385989</v>
       </c>
       <c r="D11" s="2">
-        <v>0.31718602654601341</v>
+        <v>0.31718608870558251</v>
       </c>
       <c r="E11" s="3">
-        <v>20.084566596194499</v>
+        <v>19.450317124735729</v>
       </c>
       <c r="F11" s="3">
-        <v>95.137420718816074</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95.348837209302332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -12722,67 +12686,67 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>0.29598880683855672</v>
+        <v>0.29630519121469012</v>
       </c>
       <c r="C13" s="2">
-        <v>0.29871416633729803</v>
+        <v>0.29857046793680592</v>
       </c>
       <c r="D13" s="2">
-        <v>0.27942651389976653</v>
+        <v>0.27902470891160602</v>
       </c>
       <c r="E13" s="3">
-        <v>67.829457364341081</v>
+        <v>65.503875968992247</v>
       </c>
       <c r="F13" s="3">
-        <v>92.118863049095609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91.860465116279073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>0.41799831084960692</v>
+        <v>0.41796996061167202</v>
       </c>
       <c r="C14" s="2">
-        <v>0.4246793826681447</v>
+        <v>0.42468310734355991</v>
       </c>
       <c r="D14" s="2">
-        <v>0.42181341274677181</v>
+        <v>0.42181347487981818</v>
       </c>
       <c r="E14" s="3">
         <v>53.992395437262353</v>
       </c>
       <c r="F14" s="3">
-        <v>51.901140684410649</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52.091254752851711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0.37401238600358377</v>
+        <v>0.37394002932000381</v>
       </c>
       <c r="C15" s="2">
-        <v>0.37126645830249583</v>
+        <v>0.37129074314572003</v>
       </c>
       <c r="D15" s="2">
-        <v>0.360158668864625</v>
+        <v>0.36015868555588082</v>
       </c>
       <c r="E15" s="3">
-        <v>39.400428265524617</v>
+        <v>38.329764453961459</v>
       </c>
       <c r="F15" s="3">
-        <v>71.948608137044971</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>72.162740899357601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -12802,7 +12766,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -12822,107 +12786,107 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>0.36115384596859768</v>
+        <v>0.36154772878743718</v>
       </c>
       <c r="C18" s="2">
-        <v>0.36696789862287021</v>
+        <v>0.36673078714756191</v>
       </c>
       <c r="D18" s="2">
-        <v>0.33457666480676812</v>
+        <v>0.33461264626685783</v>
       </c>
       <c r="E18" s="3">
-        <v>76.076076076076077</v>
+        <v>73.873873873873876</v>
       </c>
       <c r="F18" s="3">
         <v>97.047047047047059</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>0.45276324901461718</v>
+        <v>0.45262083198931291</v>
       </c>
       <c r="C19" s="2">
-        <v>0.44910766573133332</v>
+        <v>0.44910395964421967</v>
       </c>
       <c r="D19" s="2">
-        <v>0.5592726007298694</v>
+        <v>0.42648702236468478</v>
       </c>
       <c r="E19" s="3">
-        <v>28.31050228310502</v>
+        <v>27.853881278538811</v>
       </c>
       <c r="F19" s="3">
-        <v>2.8158295281582948</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95.433789954337897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>0.4214227586882226</v>
+        <v>0.42126352582524679</v>
       </c>
       <c r="C20" s="2">
-        <v>0.41818321486851773</v>
+        <v>0.41816637409803831</v>
       </c>
       <c r="D20" s="2">
-        <v>0.64171965878387949</v>
+        <v>0.38162458952434619</v>
       </c>
       <c r="E20" s="3">
-        <v>29.006622516556291</v>
+        <v>29.27152317880795</v>
       </c>
       <c r="F20" s="3">
-        <v>0.92715231788079477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>97.615894039735096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>0.26665133943502523</v>
+        <v>0.26643217511291478</v>
       </c>
       <c r="C21" s="2">
-        <v>0.26771877817936113</v>
+        <v>0.26658244715420593</v>
       </c>
       <c r="D21" s="2">
-        <v>0.26122390600027162</v>
+        <v>0.25897571069198377</v>
       </c>
       <c r="E21" s="3">
-        <v>59.736456808199122</v>
+        <v>49.194729136163993</v>
       </c>
       <c r="F21" s="3">
-        <v>79.502196193265007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83.016105417276719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>0.37104343472077322</v>
+        <v>0.37136810197193049</v>
       </c>
       <c r="C22" s="2">
-        <v>0.36317416550883591</v>
+        <v>0.36318511469946713</v>
       </c>
       <c r="D22" s="2">
-        <v>0.61567860830511234</v>
+        <v>0.30478960720678638</v>
       </c>
       <c r="E22" s="3">
-        <v>16.770186335403729</v>
+        <v>16.304347826086961</v>
       </c>
       <c r="F22" s="3">
-        <v>1.0869565217391299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99.689440993788821</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -12942,27 +12906,27 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>0.36169087742379558</v>
+        <v>0.36253821740525122</v>
       </c>
       <c r="C24" s="2">
-        <v>0.36254473510051549</v>
+        <v>0.36227164494486108</v>
       </c>
       <c r="D24" s="2">
-        <v>0.54513183388205433</v>
+        <v>0.35174488460720099</v>
       </c>
       <c r="E24" s="3">
-        <v>59.433962264150942</v>
+        <v>55.660377358490557</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75.471698113207552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -12982,224 +12946,224 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>0.35871942937065171</v>
+        <v>0.35949207784145248</v>
       </c>
       <c r="C26" s="2">
-        <v>0.36318775848580159</v>
+        <v>0.36284905292032249</v>
       </c>
       <c r="D26" s="2">
-        <v>0.34841846545211652</v>
+        <v>0.34866912070520772</v>
       </c>
       <c r="E26" s="3">
-        <v>78.223981900452486</v>
+        <v>71.134992458521879</v>
       </c>
       <c r="F26" s="3">
-        <v>92.119155354449461</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91.553544494720967</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>0.31255428124106838</v>
+        <v>0.31272349962511448</v>
       </c>
       <c r="C27" s="2">
-        <v>0.3116861952978065</v>
+        <v>0.3114317212966754</v>
       </c>
       <c r="D27" s="2">
-        <v>0.30720343673288347</v>
+        <v>0.30818981483668689</v>
       </c>
       <c r="E27" s="3">
-        <v>43.047619047619037</v>
+        <v>38.38095238095238</v>
       </c>
       <c r="F27" s="3">
-        <v>74.476190476190467</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>70.666666666666671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>0.37120861671201649</v>
+        <v>0.37068711860370812</v>
       </c>
       <c r="C28" s="2">
-        <v>0.37841296031878519</v>
+        <v>0.37807247202982031</v>
       </c>
       <c r="D28" s="2">
-        <v>0.40599383353323149</v>
+        <v>0.36551893425929238</v>
       </c>
       <c r="E28" s="3">
-        <v>85.210084033613441</v>
+        <v>84.537815126050418</v>
       </c>
       <c r="F28" s="3">
-        <v>18.319327731092439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87.47899159663865</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>0.35837540090436698</v>
+        <v>0.35819999395827112</v>
       </c>
       <c r="C29" s="2">
-        <v>0.36450588335292339</v>
+        <v>0.36455847958536991</v>
       </c>
       <c r="D29" s="2">
-        <v>0.44749014814356691</v>
+        <v>0.33608838642573469</v>
       </c>
       <c r="E29" s="3">
-        <v>68.495575221238937</v>
+        <v>69.115044247787623</v>
       </c>
       <c r="F29" s="3">
-        <v>2.831858407079646</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>98.849557522123902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>0.40490958401536897</v>
+        <v>0.40488154099386447</v>
       </c>
       <c r="C30" s="2">
-        <v>0.41228174692030278</v>
+        <v>0.41242924798647412</v>
       </c>
       <c r="D30" s="2">
-        <v>0.41559537850717271</v>
+        <v>0.37524673268945902</v>
       </c>
       <c r="E30" s="3">
-        <v>78.063851699279098</v>
+        <v>78.743563336766215</v>
       </c>
       <c r="F30" s="3">
-        <v>36.31307929969104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>96.580844490216265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>0.47376957293119248</v>
+        <v>0.47357248236585059</v>
       </c>
       <c r="C31" s="2">
-        <v>0.47702282404638519</v>
+        <v>0.47697507509535669</v>
       </c>
       <c r="D31" s="2">
-        <v>0.5623488793440734</v>
+        <v>0.45236471022707458</v>
       </c>
       <c r="E31" s="3">
-        <v>61.96868008948546</v>
+        <v>62.86353467561522</v>
       </c>
       <c r="F31" s="3">
-        <v>10.34675615212528</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95.357941834451893</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="2">
-        <v>0.2448765569684522</v>
+        <v>0.24486347566122499</v>
       </c>
       <c r="C32" s="2">
-        <v>0.24934431331173229</v>
+        <v>0.24919461410407179</v>
       </c>
       <c r="D32" s="2">
-        <v>0.29796987397770441</v>
+        <v>0.21833367085292391</v>
       </c>
       <c r="E32" s="3">
-        <v>66.436583261432276</v>
+        <v>65.875754961173428</v>
       </c>
       <c r="F32" s="3">
-        <v>13.11475409836066</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>97.454702329594483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="5">
-        <v>0.3829128500006353</v>
+        <v>0.38283806773943307</v>
       </c>
       <c r="C33" s="5">
-        <v>0.38446416619027618</v>
+        <v>0.38439206193045222</v>
       </c>
       <c r="D33" s="5">
-        <v>0.4185305804357361</v>
+        <v>0.36568009160421022</v>
       </c>
       <c r="E33" s="6">
-        <v>57.584150919586563</v>
+        <v>57.302546683567002</v>
       </c>
       <c r="F33" s="6">
-        <v>54.405090091355007</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>85.910367326882323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="5">
-        <v>0.41023408095253733</v>
+        <v>0.40980174384776641</v>
       </c>
       <c r="C34" s="5">
-        <v>0.41143899771806819</v>
+        <v>0.41156915180390291</v>
       </c>
       <c r="D34" s="5">
-        <v>0.40567013093479348</v>
+        <v>0.40586065991460663</v>
       </c>
       <c r="E34" s="6">
-        <v>62.153980659258529</v>
+        <v>65.314387257208324</v>
       </c>
       <c r="F34" s="6">
-        <v>82.585317877858984</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78.749245524129307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="5">
-        <v>0.37997350760047</v>
+        <v>0.38006311377011748</v>
       </c>
       <c r="C35" s="5">
-        <v>0.37996280459891391</v>
+        <v>0.37980824037886218</v>
       </c>
       <c r="D35" s="5">
-        <v>0.43809034659123619</v>
+        <v>0.35518719935923682</v>
       </c>
       <c r="E35" s="6">
-        <v>48.38864033677671</v>
+        <v>46.834487148784703</v>
       </c>
       <c r="F35" s="6">
-        <v>49.076166309269027</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87.040215241301823</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="5">
-        <v>0.36063049173473111</v>
+        <v>0.36063145557849807</v>
       </c>
       <c r="C36" s="5">
-        <v>0.365205954533391</v>
+        <v>0.36507295185972721</v>
       </c>
       <c r="D36" s="5">
-        <v>0.39786000224153562</v>
+        <v>0.34348733857091129</v>
       </c>
       <c r="E36" s="6">
-        <v>68.778053607588689</v>
+        <v>67.235951026695304</v>
       </c>
       <c r="F36" s="6">
-        <v>35.36016021699843</v>
+        <v>91.134606990630417</v>
       </c>
     </row>
   </sheetData>
